--- a/biology/Médecine/Leopold_Lichtwitz/Leopold_Lichtwitz.xlsx
+++ b/biology/Médecine/Leopold_Lichtwitz/Leopold_Lichtwitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leopold Lichtwitz (né le 9 décembre 1876 à Ohlau, mort le 16 mars 1943 à Nouvelle-Rochelle) est un médecin interniste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leopold est le fils du docteur Jakob Lichtwitz. Il étudie la médecine et la chimie dans les universités de Breslau, Munich, Fribourg et Leipzig. En 1901, il obtient son doctorat. Dans sa thèse, il traite des possibilités de l'influence de la résorption de la graisse dans l'intestin grêle avec l'aide de l'huile de moutarde (de). En 1908, il reçoit son habilitation à l'université de Göttingen.
 Deux ans plus tard, Lichtwitz prend la direction de la polyclinique à Göttingen. En 1916, il arrive à l'hôpital de Hambourg-Altona pour diriger le service de médecine interne, puis deviendra le directeur. En 1931, il prend la tête de l'hôpital Rudolf Virchow à Berlin. Après l'arrivée des nazis au pouvoir, il est licencié en raison de ses origines juives et émigre aux États-Unis. L'hôpital Montefiore à New York le nomme chef du département de médecine interne. Il est aussi professeur de médecine à l'université Columbia.
